--- a/Test Data/test 3.xlsx
+++ b/Test Data/test 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/191c37902509f8de/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil_Drazyan\Desktop\STUDY\Caricature Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_6421A46C842255140333772A70B2D4C157592E9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A3FB50-A978-4A9A-A7F2-8C8327C38DEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C37BA54-635C-4575-BD5D-6E0D6C2FE684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Эксперт" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="249">
   <si>
     <t>БЛОК 1</t>
   </si>
@@ -834,7 +834,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1114,13 +1114,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GY7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FP1" workbookViewId="0">
-      <selection activeCell="FT7" sqref="FT7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1337,7 +1337,7 @@
       <c r="GX1" s="2"/>
       <c r="GY1" s="2"/>
     </row>
-    <row r="2" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -1590,7 +1590,7 @@
       <c r="GX2" s="2"/>
       <c r="GY2" s="2"/>
     </row>
-    <row r="3" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2039,7 +2039,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2450,10 +2450,13 @@
       <c r="GX4" s="1"/>
       <c r="GY4" s="1"/>
     </row>
-    <row r="6" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
       <c r="E6" t="s">
         <v>247</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:207" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:207" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
